--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2589.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2589.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7927335620819848</v>
+        <v>1.358396053314209</v>
       </c>
       <c r="B1">
-        <v>1.295680115287896</v>
+        <v>2.927000045776367</v>
       </c>
       <c r="C1">
-        <v>3.388802723579599</v>
+        <v>6.026174068450928</v>
       </c>
       <c r="D1">
-        <v>2.301881611458639</v>
+        <v>2.138821601867676</v>
       </c>
       <c r="E1">
-        <v>1.004742536515187</v>
+        <v>0.766714870929718</v>
       </c>
     </row>
   </sheetData>
